--- a/Aufgabe1/Aufgabe 1.1.xlsx
+++ b/Aufgabe1/Aufgabe 1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E8321-F7CD-480E-B303-17EDE82E765C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8092898-09F4-4BA8-8CB2-E4B13E42C58F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6F561CFA-9A73-4BC7-953A-3F6C2B24DACE}"/>
   </bookViews>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C96022D-2518-485C-B1A5-A84D6F038E1F}">
   <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1083,7 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I39">
         <v>8</v>
